--- a/pred_ohlcv/54_21/2020-01-20 QTUM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 QTUM ohlcv.xlsx
@@ -834,7 +834,7 @@
         <v>-47874.22068644999</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-48346.58688644999</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-48911.29728644999</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-48920.79728644999</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-50027.28878644999</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-50026.49778645</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-56830.73138645</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-62617.05598645</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-60625.15548644999</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-60625.15548644999</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-60376.43018644999</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-60388.81318645</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-60388.81318645</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-60163.80248645</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-59071.53720983</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-59071.53720983</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-59071.53720983</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-59109.05280983</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-58818.16830983</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-58745.48160983</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-53054.71750983</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-54374.58810983</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-55676.33350983</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-56520.20710983</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-57037.93020983</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-55663.38190983</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-62332.40600983</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-61992.01060983</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-61685.77190983</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-65122.85380983</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-64872.30630983</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-63331.34608301002</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-65101.75418301002</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-64933.16719820002</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-62339.22749820002</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-62431.38069820002</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-62333.04529820001</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-62332.81189820002</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-62394.62299820001</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-62394.62299820001</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-61881.26159820001</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-64647.61929820001</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-64368.74259820001</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-64474.63009820001</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-64479.63009820001</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-65001.25619820001</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-65001.25619820001</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-65001.25619820001</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-65105.3344982</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-65075.3774982</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-65075.3774982</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-65075.3774982</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-74555.71576505003</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-74605.71576505003</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-74271.90138597004</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-72674.36308597004</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-67033.74623779001</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-46412.30543779</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-39700.99943779</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-25705.39043779</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-25705.39043779</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-25140.15538035</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-25173.42298035</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-23173.06958035</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-18422.63529635</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-15116.03039635</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-15116.03039635</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-9364.919196349998</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-9364.919196349998</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-21356.57719635</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-22244.48809635</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-21460.42819635</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-22162.74069635</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-22162.74069635</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-22162.74069635</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-24601.29789635</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-25255.70569635</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-31861.48489635</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-32186.46119635</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-35400.54859635</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-36722.01229635</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-33198.58369634999</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-32298.89780714999</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-33516.40560714999</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-32687.84960714999</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-33738.65790714999</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-33424.36770714998</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-33470.90830714998</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-33027.11330714999</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-33590.12970714999</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-35534.72900714998</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-35745.44190714998</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-36795.63030714998</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-36795.63030714998</v>
       </c>
       <c r="H392">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>-32601.73387305995</v>
       </c>
       <c r="H524">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>-34601.73387305996</v>
       </c>
       <c r="H525">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>-200893.48003716</v>
       </c>
       <c r="H783">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>-200725.98443716</v>
       </c>
       <c r="H784">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>-199313.58203716</v>
       </c>
       <c r="H785">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>-199313.58203716</v>
       </c>
       <c r="H786">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>-201084.45643716</v>
       </c>
       <c r="H787">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>-198642.48897402</v>
       </c>
       <c r="H788">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>-197311.2314175</v>
       </c>
       <c r="H789">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>-200136.8598175</v>
       </c>
       <c r="H790">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>-196905.3312175</v>
       </c>
       <c r="H791">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>-215930.26216224</v>
       </c>
       <c r="H824">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>-230633.85176224</v>
       </c>
       <c r="H825">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>-231566.69161364</v>
       </c>
       <c r="H827">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>-226326.74126504</v>
       </c>
       <c r="H828">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>-224777.59506504</v>
       </c>
       <c r="H829">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>-225587.33776504</v>
       </c>
       <c r="H830">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>-225585.33776504</v>
       </c>
       <c r="H831">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>-218846.00114718</v>
       </c>
       <c r="H868">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="869" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-20 QTUM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 QTUM ohlcv.xlsx
@@ -834,7 +834,7 @@
         <v>-47874.22068644999</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-48346.58688644999</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-48911.29728644999</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-48920.79728644999</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-50027.28878644999</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-50026.49778645</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-56830.73138645</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-62617.05598645</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-60625.15548644999</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-60625.15548644999</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-60376.43018644999</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-60388.81318645</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-60388.81318645</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-60163.80248645</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-59071.53720983</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-59071.53720983</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-59071.53720983</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-59109.05280983</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-58818.16830983</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-58745.48160983</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-53054.71750983</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-54374.58810983</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-55676.33350983</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-56520.20710983</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-57037.93020983</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-55663.38190983</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-62332.40600983</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-61992.01060983</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-61685.77190983</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-65122.85380983</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-64872.30630983</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-63331.34608301002</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-65101.75418301002</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-64933.16719820002</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-62339.22749820002</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-62431.38069820002</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-62333.04529820001</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-62332.81189820002</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-62394.62299820001</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-62394.62299820001</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-61881.26159820001</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-64647.61929820001</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-64368.74259820001</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-64474.63009820001</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-64479.63009820001</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-65001.25619820001</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-65001.25619820001</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-65001.25619820001</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-65105.3344982</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-65075.3774982</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-65075.3774982</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-65075.3774982</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-74555.71576505003</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-74605.71576505003</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-74271.90138597004</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-72674.36308597004</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-67033.74623779001</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-46412.30543779</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-39700.99943779</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-37311.65243779</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-35610.96623778999</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-32608.15733778999</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-34443.55223779</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-26377.35113779</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-31856.71613779</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-31855.42763779</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-28697.54023779</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-28697.54023779</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-25705.39043779</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-25705.39043779</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-25664.88963779</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-25140.15538035</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-25173.42298035</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-23173.06958035</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-18422.63529635</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-15116.03039635</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-15116.03039635</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-9364.919196349998</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-9364.919196349998</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-21356.57719635</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-22244.48809635</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-21460.42819635</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-22162.74069635</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-22162.74069635</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-22162.74069635</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-24601.29789635</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-25255.70569635</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-31861.48489635</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-32186.46119635</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>-31960.96930922996</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>-200893.48003716</v>
       </c>
       <c r="H783">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>-200725.98443716</v>
       </c>
       <c r="H784">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>-199313.58203716</v>
       </c>
       <c r="H785">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>-199313.58203716</v>
       </c>
       <c r="H786">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>-201084.45643716</v>
       </c>
       <c r="H787">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>-198642.48897402</v>
       </c>
       <c r="H788">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>-197311.2314175</v>
       </c>
       <c r="H789">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>-200136.8598175</v>
       </c>
       <c r="H790">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>-196905.3312175</v>
       </c>
       <c r="H791">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>-215930.26216224</v>
       </c>
       <c r="H824">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>-231566.69161364</v>
       </c>
       <c r="H827">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>-226326.74126504</v>
       </c>
       <c r="H828">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>-224777.59506504</v>
       </c>
       <c r="H829">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>-225587.33776504</v>
       </c>
       <c r="H830">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>-225585.33776504</v>
       </c>
       <c r="H831">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>-222726.93456504</v>
       </c>
       <c r="H849">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>-218845.51916504</v>
       </c>
       <c r="H850">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>-217943.49674718</v>
       </c>
       <c r="H865">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>-218846.00114718</v>
       </c>
       <c r="H868">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>-216852.32564718</v>
       </c>
       <c r="H872">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
